--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>bypass_browser_auth</t>
+    <t>input_onDisableField</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.79296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.95703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>input_onDisableField</t>
+    <t>readRating</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.95703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>readRating</t>
+    <t>clickGrowingButton</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.6328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,13 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>clickGrowingButton</t>
+    <t>enterValidCode</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>25-05-2024</t>
+    <t>27-05-2024</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.9375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>enterValidCode</t>
+    <t>clickAllSocialMediaLink</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.9375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.6328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,13 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>clickAllSocialMediaLink</t>
+    <t>dragAndDropItems</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>27-05-2024</t>
+    <t>28-05-2024</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.07421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,13 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>dragAndDropItems</t>
+    <t>compareValue</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>Failed</t>
   </si>
   <si>
-    <t>28-05-2024</t>
+    <t>29-05-2024</t>
   </si>
 </sst>
 </file>
@@ -55,12 +55,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.07421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,13 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>compareValue</t>
+    <t>downloadPDFAndVerifyText</t>
   </si>
   <si>
-    <t>Failed</t>
+    <t>Passed</t>
   </si>
   <si>
-    <t>29-05-2024</t>
+    <t>01-06-2024</t>
   </si>
 </sst>
 </file>
@@ -55,12 +55,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="10"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.1796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>downloadPDFAndVerifyText</t>
+    <t>addAndRemoveTags</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,13 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>addAndRemoveTags</t>
+    <t>downloadAndStoreFile</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>01-06-2024</t>
+    <t>02-06-2024</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.3046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,13 +23,19 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>downloadAndStoreFile</t>
+    <t>verifyFlightResultSearch</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>07-06-2024</t>
+  </si>
+  <si>
+    <t>verifyFailedFlightSearch</t>
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>02-06-2024</t>
   </si>
 </sst>
 </file>
@@ -46,12 +52,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -76,22 +92,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.57421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -118,6 +135,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,19 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>verifyFlightResultSearch</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>07-06-2024</t>
-  </si>
-  <si>
-    <t>verifyFailedFlightSearch</t>
+    <t>fillUpForm</t>
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>08-06-2024</t>
   </si>
 </sst>
 </file>
@@ -52,22 +46,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -92,23 +76,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.57421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -135,17 +118,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>fillUpForm</t>
+    <t>hoverPosterAndFetchPrice</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.91015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>hoverPosterAndFetchPrice</t>
+    <t>verifyLocations</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.55078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>verifyLocations</t>
+    <t>verifyButtonVisibility</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.55078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,13 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>verifyButtonVisibility</t>
+    <t>setAvailableRateValue</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>08-06-2024</t>
+    <t>09-06-2024</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>setAvailableRateValue</t>
+    <t>fetchAndVerifyQRCodeText</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.0078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,13 +23,16 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>fetchAndVerifyQRCodeText</t>
+    <t>createAccountWithValidInfo</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>09-06-2024</t>
+    <t>14-06-2024</t>
+  </si>
+  <si>
+    <t>submitAnOrder</t>
   </si>
 </sst>
 </file>
@@ -76,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -85,13 +89,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -118,6 +122,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,16 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>createAccountWithValidInfo</t>
+    <t>sortProductPrice</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
     <t>14-06-2024</t>
-  </si>
-  <si>
-    <t>submitAnOrder</t>
   </si>
 </sst>
 </file>
@@ -79,9 +76,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -89,13 +85,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.0390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -122,17 +118,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,13 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>sortProductPrice</t>
+    <t>redirectionChainOfPages</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>14-06-2024</t>
+    <t>15-06-2024</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.26171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,13 +23,34 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>redirectionChainOfPages</t>
+    <t>single_Selection_Deals</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
     <t>15-06-2024</t>
+  </si>
+  <si>
+    <t>multiple_Selection_Brands</t>
+  </si>
+  <si>
+    <t>single_Selection_OS</t>
+  </si>
+  <si>
+    <t>multiple_Selection_OS</t>
+  </si>
+  <si>
+    <t>all_Selection</t>
+  </si>
+  <si>
+    <t>all_SelectionUnder_A_Category</t>
+  </si>
+  <si>
+    <t>invalid_Category</t>
+  </si>
+  <si>
+    <t>invalid_Option</t>
   </si>
 </sst>
 </file>
@@ -76,8 +97,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -85,13 +113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.45703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -118,6 +146,83 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,34 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>single_Selection_Deals</t>
+    <t>enterValidCode</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
     <t>15-06-2024</t>
-  </si>
-  <si>
-    <t>multiple_Selection_Brands</t>
-  </si>
-  <si>
-    <t>single_Selection_OS</t>
-  </si>
-  <si>
-    <t>multiple_Selection_OS</t>
-  </si>
-  <si>
-    <t>all_Selection</t>
-  </si>
-  <si>
-    <t>all_SelectionUnder_A_Category</t>
-  </si>
-  <si>
-    <t>invalid_Category</t>
-  </si>
-  <si>
-    <t>invalid_Option</t>
   </si>
 </sst>
 </file>
@@ -97,15 +76,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -113,13 +85,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.9375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -146,83 +118,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,13 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>enterValidCode</t>
+    <t>countWorldPopulation</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>15-06-2024</t>
+    <t>23-06-2024</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.9375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.4453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>countWorldPopulation</t>
+    <t>clickHighestAndLowestProductButton</t>
   </si>
   <si>
     <t>Passed</t>
@@ -91,7 +91,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.78515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -29,7 +29,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>23-06-2024</t>
+    <t>29-06-2024</t>
   </si>
 </sst>
 </file>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,13 +23,19 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>clickHighestAndLowestProductButton</t>
+    <t>dragCapitalToRespectiveCountry</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
     <t>29-06-2024</t>
+  </si>
+  <si>
+    <t>dragCapitalToWrongCountry</t>
+  </si>
+  <si>
+    <t>dragCapitalToRespective_WrongCountry</t>
   </si>
 </sst>
 </file>
@@ -76,8 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -85,13 +93,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.78515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -118,6 +126,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -29,7 +29,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>29-06-2024</t>
+    <t>07-07-2024</t>
   </si>
   <si>
     <t>dragCapitalToWrongCountry</t>
